--- a/RegressionDataset.xlsx
+++ b/RegressionDataset.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fausto\Desktop\MAGISTRALE\2° ANNO\SEMESTRE 2\BIG DATA ENGENEERING\PROGETTO FINALE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\OneDrive\Documents\GitHub\KPMG-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2538189F-A0AD-46BD-9616-3F55B07B70CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6FAB47-DA02-496D-82ED-25F4857E696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="190" yWindow="0" windowWidth="13850" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -640,21 +652,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J632" sqref="J632"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -706,7 +719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -732,7 +745,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -758,7 +771,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -784,7 +797,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -810,7 +823,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -836,7 +849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -862,7 +875,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -888,7 +901,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -914,7 +927,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -940,7 +953,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -966,7 +979,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1005,7 @@
         <v>9066</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>8865</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>8264</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1083,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>7795</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>7127</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>7118</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1200,7 +1213,7 @@
         <v>7195</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>7659</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1291,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1317,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1330,7 +1343,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1369,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1395,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1434,7 +1447,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1499,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1512,7 +1525,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1538,7 +1551,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1577,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1629,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1642,7 +1655,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1707,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1720,7 +1733,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +1759,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1798,7 +1811,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -1824,7 +1837,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1863,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1876,7 +1889,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1915,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1928,7 +1941,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +1967,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1993,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2071,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -2084,7 +2097,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +2149,7 @@
         <v>12646</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +2175,7 @@
         <v>13411</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2188,7 +2201,7 @@
         <v>12508</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +2227,7 @@
         <v>12906</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2240,7 +2253,7 @@
         <v>12947</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2279,7 @@
         <v>13451</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -2292,7 +2305,7 @@
         <v>13875</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2318,7 +2331,7 @@
         <v>13356</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -2344,7 +2357,7 @@
         <v>13330</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>13862</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -2396,7 +2409,7 @@
         <v>14419</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2422,7 +2435,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2448,7 +2461,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2513,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2526,7 +2539,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -2578,7 +2591,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2604,7 +2617,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2656,7 +2669,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2682,7 +2695,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2708,7 +2721,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2734,7 +2747,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2760,7 +2773,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -2786,7 +2799,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2812,7 +2825,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +2877,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2890,7 +2903,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2968,7 +2981,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2994,7 +3007,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3020,7 +3033,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -3072,7 +3085,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3111,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -3124,7 +3137,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3150,7 +3163,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3176,7 +3189,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -3202,7 +3215,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -3228,7 +3241,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3254,7 +3267,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3280,7 +3293,7 @@
         <v>6175</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3306,7 +3319,7 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -3332,7 +3345,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3384,7 +3397,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -3410,7 +3423,7 @@
         <v>6438</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -3436,7 +3449,7 @@
         <v>6382</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -3462,7 +3475,7 @@
         <v>6131</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -3488,7 +3501,7 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -3514,7 +3527,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>77</v>
       </c>
@@ -3540,7 +3553,7 @@
         <v>6337</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3566,7 +3579,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -3618,7 +3631,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -3644,7 +3657,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -3696,7 +3709,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3722,7 +3735,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -3748,7 +3761,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -3774,7 +3787,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>77</v>
       </c>
@@ -3826,7 +3839,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3852,7 +3865,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -3878,7 +3891,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -3904,7 +3917,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -3956,7 +3969,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3982,7 +3995,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -4008,7 +4021,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -4034,7 +4047,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -4060,7 +4073,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -4086,7 +4099,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>77</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4151,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4164,7 +4177,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -4190,7 +4203,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -4216,7 +4229,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -4242,7 +4255,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -4268,7 +4281,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -4294,7 +4307,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -4320,7 +4333,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -4346,7 +4359,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -4372,7 +4385,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>77</v>
       </c>
@@ -4398,7 +4411,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4424,7 +4437,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -4476,7 +4489,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -4502,7 +4515,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -4528,7 +4541,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -4554,7 +4567,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -4580,7 +4593,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -4606,7 +4619,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -4632,7 +4645,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -4658,7 +4671,7 @@
         <v>6636</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -4684,7 +4697,7 @@
         <v>7306</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -4710,7 +4723,7 @@
         <v>8449</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -4736,7 +4749,7 @@
         <v>7786</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -4762,7 +4775,7 @@
         <v>7875</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -4788,7 +4801,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -4814,7 +4827,7 @@
         <v>8442</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -4840,7 +4853,7 @@
         <v>8313</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -4866,7 +4879,7 @@
         <v>8753</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -4892,7 +4905,7 @@
         <v>8814</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -4918,7 +4931,7 @@
         <v>8118</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -4944,7 +4957,7 @@
         <v>8810</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>77</v>
       </c>
@@ -4970,7 +4983,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -4996,7 +5009,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -5022,7 +5035,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -5048,7 +5061,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -5074,7 +5087,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -5100,7 +5113,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -5126,7 +5139,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -5152,7 +5165,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -5178,7 +5191,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -5204,7 +5217,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -5230,7 +5243,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>77</v>
       </c>
@@ -5256,7 +5269,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5282,7 +5295,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -5308,7 +5321,7 @@
         <v>5818</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>5196</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -5360,7 +5373,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -5386,7 +5399,7 @@
         <v>5296</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -5412,7 +5425,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -5438,7 +5451,7 @@
         <v>5252</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -5464,7 +5477,7 @@
         <v>5212</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -5490,7 +5503,7 @@
         <v>5393</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -5516,7 +5529,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>77</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -5568,7 +5581,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -5594,7 +5607,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5620,7 +5633,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -5646,7 +5659,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -5672,7 +5685,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5698,7 +5711,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -5724,7 +5737,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -5750,7 +5763,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -5776,7 +5789,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -5802,7 +5815,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>77</v>
       </c>
@@ -5828,7 +5841,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -5854,7 +5867,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -5880,7 +5893,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5906,7 +5919,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -5932,7 +5945,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -5958,7 +5971,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -5984,7 +5997,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -6010,7 +6023,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -6036,7 +6049,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -6062,7 +6075,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>18</v>
       </c>
@@ -6088,7 +6101,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>77</v>
       </c>
@@ -6114,7 +6127,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -6140,7 +6153,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -6166,7 +6179,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6205,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -6218,7 +6231,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -6244,7 +6257,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -6270,7 +6283,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>15</v>
       </c>
@@ -6296,7 +6309,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -6322,7 +6335,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -6348,7 +6361,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>18</v>
       </c>
@@ -6374,7 +6387,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>77</v>
       </c>
@@ -6400,7 +6413,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -6426,7 +6439,7 @@
         <v>11497</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -6452,7 +6465,7 @@
         <v>11072</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -6478,7 +6491,7 @@
         <v>11023</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -6504,7 +6517,7 @@
         <v>12092</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -6530,7 +6543,7 @@
         <v>11252</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -6556,7 +6569,7 @@
         <v>11694</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -6582,7 +6595,7 @@
         <v>11023</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -6608,7 +6621,7 @@
         <v>10946</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -6634,7 +6647,7 @@
         <v>10497</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -6660,7 +6673,7 @@
         <v>12346</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>77</v>
       </c>
@@ -6686,7 +6699,7 @@
         <v>11955</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -6712,7 +6725,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -6738,7 +6751,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -6764,7 +6777,7 @@
         <v>5989</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -6790,7 +6803,7 @@
         <v>5431</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -6816,7 +6829,7 @@
         <v>5532</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -6842,7 +6855,7 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -6868,7 +6881,7 @@
         <v>5670</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -6920,7 +6933,7 @@
         <v>5208</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>18</v>
       </c>
@@ -6946,7 +6959,7 @@
         <v>5131</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>77</v>
       </c>
@@ -6972,7 +6985,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -6998,7 +7011,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -7024,7 +7037,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -7050,7 +7063,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -7076,7 +7089,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -7102,7 +7115,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -7128,7 +7141,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -7154,7 +7167,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>16</v>
       </c>
@@ -7180,7 +7193,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -7206,7 +7219,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -7232,7 +7245,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>77</v>
       </c>
@@ -7258,7 +7271,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -7284,7 +7297,7 @@
         <v>6948</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -7310,7 +7323,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -7336,7 +7349,7 @@
         <v>6798</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -7362,7 +7375,7 @@
         <v>6713</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -7388,7 +7401,7 @@
         <v>6787</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -7414,7 +7427,7 @@
         <v>7021</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -7440,7 +7453,7 @@
         <v>7408</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7466,7 +7479,7 @@
         <v>7543</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -7492,7 +7505,7 @@
         <v>7451</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>18</v>
       </c>
@@ -7518,7 +7531,7 @@
         <v>7865</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>77</v>
       </c>
@@ -7544,7 +7557,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -7570,7 +7583,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -7596,7 +7609,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -7622,7 +7635,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -7648,7 +7661,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -7674,7 +7687,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -7700,7 +7713,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -7726,7 +7739,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -7752,7 +7765,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +7791,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>18</v>
       </c>
@@ -7804,7 +7817,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>77</v>
       </c>
@@ -7830,7 +7843,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -7856,7 +7869,7 @@
         <v>6613</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -7882,7 +7895,7 @@
         <v>6872</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -7908,7 +7921,7 @@
         <v>7344</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -7934,7 +7947,7 @@
         <v>7235</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -7960,7 +7973,7 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -7986,7 +7999,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -8012,7 +8025,7 @@
         <v>7363</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -8038,7 +8051,7 @@
         <v>7384</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -8064,7 +8077,7 @@
         <v>7653</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>18</v>
       </c>
@@ -8090,7 +8103,7 @@
         <v>7468</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>77</v>
       </c>
@@ -8116,7 +8129,7 @@
         <v>7744</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -8142,7 +8155,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -8168,7 +8181,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -8194,7 +8207,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -8220,7 +8233,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -8246,7 +8259,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -8272,7 +8285,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -8298,7 +8311,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8324,7 +8337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -8350,7 +8363,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -8376,7 +8389,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>77</v>
       </c>
@@ -8402,7 +8415,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -8428,7 +8441,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -8454,7 +8467,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -8480,7 +8493,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -8506,7 +8519,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -8532,7 +8545,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -8558,7 +8571,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -8584,7 +8597,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>16</v>
       </c>
@@ -8610,7 +8623,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -8636,7 +8649,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>18</v>
       </c>
@@ -8662,7 +8675,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>77</v>
       </c>
@@ -8688,7 +8701,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -8714,7 +8727,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -8740,7 +8753,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -8766,7 +8779,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -8792,7 +8805,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -8818,7 +8831,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>14</v>
       </c>
@@ -8844,7 +8857,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -8870,7 +8883,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>16</v>
       </c>
@@ -8896,7 +8909,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>17</v>
       </c>
@@ -8922,7 +8935,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>18</v>
       </c>
@@ -8948,7 +8961,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>77</v>
       </c>
@@ -8974,7 +8987,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -9000,7 +9013,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>10</v>
       </c>
@@ -9026,7 +9039,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -9052,7 +9065,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>12</v>
       </c>
@@ -9078,7 +9091,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -9104,7 +9117,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -9130,7 +9143,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -9156,7 +9169,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>16</v>
       </c>
@@ -9182,7 +9195,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>17</v>
       </c>
@@ -9208,7 +9221,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>18</v>
       </c>
@@ -9234,7 +9247,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>77</v>
       </c>
@@ -9260,7 +9273,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -9286,7 +9299,7 @@
         <v>13576</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>10</v>
       </c>
@@ -9312,7 +9325,7 @@
         <v>13612</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -9338,7 +9351,7 @@
         <v>12401</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -9364,7 +9377,7 @@
         <v>12041</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -9390,7 +9403,7 @@
         <v>11894</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>14</v>
       </c>
@@ -9416,7 +9429,7 @@
         <v>11818</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -9442,7 +9455,7 @@
         <v>12123</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>16</v>
       </c>
@@ -9468,7 +9481,7 @@
         <v>12484</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>17</v>
       </c>
@@ -9494,7 +9507,7 @@
         <v>13499</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>18</v>
       </c>
@@ -9520,7 +9533,7 @@
         <v>13866</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>77</v>
       </c>
@@ -9546,7 +9559,7 @@
         <v>14360</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>8</v>
       </c>
@@ -9572,7 +9585,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>10</v>
       </c>
@@ -9598,7 +9611,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -9624,7 +9637,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -9650,7 +9663,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -9676,7 +9689,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -9702,7 +9715,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>15</v>
       </c>
@@ -9728,7 +9741,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>16</v>
       </c>
@@ -9754,7 +9767,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -9780,7 +9793,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>18</v>
       </c>
@@ -9806,7 +9819,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>77</v>
       </c>
@@ -9832,7 +9845,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -9858,7 +9871,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>10</v>
       </c>
@@ -9884,7 +9897,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -9910,7 +9923,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -9936,7 +9949,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -9962,7 +9975,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -9988,7 +10001,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>15</v>
       </c>
@@ -10014,7 +10027,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>16</v>
       </c>
@@ -10040,7 +10053,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -10066,7 +10079,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>18</v>
       </c>
@@ -10092,7 +10105,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>77</v>
       </c>
@@ -10118,7 +10131,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>8</v>
       </c>
@@ -10144,7 +10157,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -10170,7 +10183,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -10196,7 +10209,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -10222,7 +10235,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>13</v>
       </c>
@@ -10248,7 +10261,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -10274,7 +10287,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -10300,7 +10313,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>16</v>
       </c>
@@ -10326,7 +10339,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>17</v>
       </c>
@@ -10352,7 +10365,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>18</v>
       </c>
@@ -10378,7 +10391,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>77</v>
       </c>
@@ -10404,7 +10417,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -10430,7 +10443,7 @@
         <v>10131</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>10</v>
       </c>
@@ -10456,7 +10469,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>11</v>
       </c>
@@ -10482,7 +10495,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -10508,7 +10521,7 @@
         <v>10172</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -10534,7 +10547,7 @@
         <v>10447</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>14</v>
       </c>
@@ -10560,7 +10573,7 @@
         <v>10532</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>15</v>
       </c>
@@ -10586,7 +10599,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>16</v>
       </c>
@@ -10612,7 +10625,7 @@
         <v>10818</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>17</v>
       </c>
@@ -10638,7 +10651,7 @@
         <v>10495</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>18</v>
       </c>
@@ -10664,7 +10677,7 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>77</v>
       </c>
@@ -10690,7 +10703,7 @@
         <v>12311</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>8</v>
       </c>
@@ -10716,7 +10729,7 @@
         <v>7584</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>10</v>
       </c>
@@ -10742,7 +10755,7 @@
         <v>6971</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>11</v>
       </c>
@@ -10768,7 +10781,7 @@
         <v>6481</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -10794,7 +10807,7 @@
         <v>6644</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -10820,7 +10833,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>14</v>
       </c>
@@ -10846,7 +10859,7 @@
         <v>6284</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>15</v>
       </c>
@@ -10872,7 +10885,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>16</v>
       </c>
@@ -10898,7 +10911,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>17</v>
       </c>
@@ -10924,7 +10937,7 @@
         <v>7131</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>18</v>
       </c>
@@ -10950,7 +10963,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>78</v>
       </c>
@@ -10976,7 +10989,7 @@
         <v>8554</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -11002,7 +11015,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -11028,7 +11041,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>11</v>
       </c>
@@ -11054,7 +11067,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -11080,7 +11093,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>13</v>
       </c>
@@ -11106,7 +11119,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>14</v>
       </c>
@@ -11132,7 +11145,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -11158,7 +11171,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -11184,7 +11197,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>17</v>
       </c>
@@ -11210,7 +11223,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>18</v>
       </c>
@@ -11236,7 +11249,7 @@
         <v>5241</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>77</v>
       </c>
@@ -11262,7 +11275,7 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -11288,7 +11301,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>10</v>
       </c>
@@ -11314,7 +11327,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -11340,7 +11353,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -11366,7 +11379,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -11392,7 +11405,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -11418,7 +11431,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>15</v>
       </c>
@@ -11444,7 +11457,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>16</v>
       </c>
@@ -11470,7 +11483,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -11496,7 +11509,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>18</v>
       </c>
@@ -11522,7 +11535,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>77</v>
       </c>
@@ -11548,7 +11561,7 @@
         <v>4664</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -11574,7 +11587,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>10</v>
       </c>
@@ -11600,7 +11613,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -11626,7 +11639,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -11652,7 +11665,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -11678,7 +11691,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>14</v>
       </c>
@@ -11704,7 +11717,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>15</v>
       </c>
@@ -11730,7 +11743,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>16</v>
       </c>
@@ -11756,7 +11769,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>17</v>
       </c>
@@ -11782,7 +11795,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>18</v>
       </c>
@@ -11808,7 +11821,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>77</v>
       </c>
@@ -11834,7 +11847,7 @@
         <v>6154</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -11860,7 +11873,7 @@
         <v>6749</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>10</v>
       </c>
@@ -11886,7 +11899,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -11912,7 +11925,7 @@
         <v>6635</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>12</v>
       </c>
@@ -11938,7 +11951,7 @@
         <v>6673</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -11964,7 +11977,7 @@
         <v>6949</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>14</v>
       </c>
@@ -11990,7 +12003,7 @@
         <v>7121</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>15</v>
       </c>
@@ -12016,7 +12029,7 @@
         <v>7464</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>16</v>
       </c>
@@ -12042,7 +12055,7 @@
         <v>6938</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>17</v>
       </c>
@@ -12068,7 +12081,7 @@
         <v>6983</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>18</v>
       </c>
@@ -12094,7 +12107,7 @@
         <v>7068</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>77</v>
       </c>
@@ -12120,7 +12133,7 @@
         <v>7341</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -12146,7 +12159,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>10</v>
       </c>
@@ -12172,7 +12185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -12198,7 +12211,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>12</v>
       </c>
@@ -12224,7 +12237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -12250,7 +12263,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>14</v>
       </c>
@@ -12276,7 +12289,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -12302,7 +12315,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>16</v>
       </c>
@@ -12328,7 +12341,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>17</v>
       </c>
@@ -12354,7 +12367,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>18</v>
       </c>
@@ -12380,7 +12393,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>77</v>
       </c>
@@ -12406,7 +12419,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -12432,7 +12445,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>10</v>
       </c>
@@ -12458,7 +12471,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>11</v>
       </c>
@@ -12484,7 +12497,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>12</v>
       </c>
@@ -12510,7 +12523,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>13</v>
       </c>
@@ -12536,7 +12549,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>14</v>
       </c>
@@ -12562,7 +12575,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -12588,7 +12601,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>16</v>
       </c>
@@ -12614,7 +12627,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>17</v>
       </c>
@@ -12640,7 +12653,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>18</v>
       </c>
@@ -12666,7 +12679,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>77</v>
       </c>
@@ -12692,7 +12705,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>8</v>
       </c>
@@ -12718,7 +12731,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>10</v>
       </c>
@@ -12744,7 +12757,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>11</v>
       </c>
@@ -12770,7 +12783,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>12</v>
       </c>
@@ -12796,7 +12809,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -12822,7 +12835,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>14</v>
       </c>
@@ -12848,7 +12861,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>15</v>
       </c>
@@ -12874,7 +12887,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>16</v>
       </c>
@@ -12900,7 +12913,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>17</v>
       </c>
@@ -12926,7 +12939,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>18</v>
       </c>
@@ -12952,7 +12965,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>77</v>
       </c>
@@ -12978,7 +12991,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>8</v>
       </c>
@@ -13004,7 +13017,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>10</v>
       </c>
@@ -13030,7 +13043,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>11</v>
       </c>
@@ -13056,7 +13069,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>12</v>
       </c>
@@ -13082,7 +13095,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -13108,7 +13121,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>14</v>
       </c>
@@ -13134,7 +13147,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -13160,7 +13173,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>16</v>
       </c>
@@ -13186,7 +13199,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>17</v>
       </c>
@@ -13212,7 +13225,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>18</v>
       </c>
@@ -13238,7 +13251,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>77</v>
       </c>
@@ -13264,7 +13277,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -13290,7 +13303,7 @@
         <v>16297</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -13316,7 +13329,7 @@
         <v>15715</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>11</v>
       </c>
@@ -13342,7 +13355,7 @@
         <v>14667</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>12</v>
       </c>
@@ -13368,7 +13381,7 @@
         <v>14149</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -13394,7 +13407,7 @@
         <v>14747</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>14</v>
       </c>
@@ -13420,7 +13433,7 @@
         <v>14963</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>15</v>
       </c>
@@ -13446,7 +13459,7 @@
         <v>16448</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>16</v>
       </c>
@@ -13472,7 +13485,7 @@
         <v>15981</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>17</v>
       </c>
@@ -13498,7 +13511,7 @@
         <v>16537</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>18</v>
       </c>
@@ -13524,7 +13537,7 @@
         <v>16889</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>77</v>
       </c>
@@ -13550,7 +13563,7 @@
         <v>18441</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>8</v>
       </c>
@@ -13576,7 +13589,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -13602,7 +13615,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -13628,7 +13641,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -13654,7 +13667,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -13680,7 +13693,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -13706,7 +13719,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>15</v>
       </c>
@@ -13732,7 +13745,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>16</v>
       </c>
@@ -13758,7 +13771,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>17</v>
       </c>
@@ -13784,7 +13797,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>18</v>
       </c>
@@ -13810,7 +13823,7 @@
         <v>4763</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>77</v>
       </c>
@@ -13836,7 +13849,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -13862,7 +13875,7 @@
         <v>6057</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -13888,7 +13901,7 @@
         <v>6037</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -13914,7 +13927,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>12</v>
       </c>
@@ -13940,7 +13953,7 @@
         <v>5721</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>13</v>
       </c>
@@ -13966,7 +13979,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>14</v>
       </c>
@@ -13992,7 +14005,7 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>15</v>
       </c>
@@ -14018,7 +14031,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>16</v>
       </c>
@@ -14044,7 +14057,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>17</v>
       </c>
@@ -14070,7 +14083,7 @@
         <v>5377</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>18</v>
       </c>
@@ -14096,7 +14109,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>77</v>
       </c>
@@ -14122,7 +14135,7 @@
         <v>5817</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>8</v>
       </c>
@@ -14148,7 +14161,7 @@
         <v>5207</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>10</v>
       </c>
@@ -14174,7 +14187,7 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>11</v>
       </c>
@@ -14200,7 +14213,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>12</v>
       </c>
@@ -14226,7 +14239,7 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>13</v>
       </c>
@@ -14252,7 +14265,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>14</v>
       </c>
@@ -14278,7 +14291,7 @@
         <v>5534</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>15</v>
       </c>
@@ -14304,7 +14317,7 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>16</v>
       </c>
@@ -14330,7 +14343,7 @@
         <v>5734</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>17</v>
       </c>
@@ -14356,7 +14369,7 @@
         <v>5911</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>18</v>
       </c>
@@ -14382,7 +14395,7 @@
         <v>5983</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>77</v>
       </c>
@@ -14408,7 +14421,7 @@
         <v>5818</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>8</v>
       </c>
@@ -14434,7 +14447,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>10</v>
       </c>
@@ -14460,7 +14473,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>11</v>
       </c>
@@ -14486,7 +14499,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>12</v>
       </c>
@@ -14512,7 +14525,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>13</v>
       </c>
@@ -14538,7 +14551,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>14</v>
       </c>
@@ -14564,7 +14577,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>15</v>
       </c>
@@ -14590,7 +14603,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>16</v>
       </c>
@@ -14616,7 +14629,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>17</v>
       </c>
@@ -14642,7 +14655,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>18</v>
       </c>
@@ -14668,7 +14681,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>77</v>
       </c>
@@ -14694,7 +14707,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>8</v>
       </c>
@@ -14720,7 +14733,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>10</v>
       </c>
@@ -14746,7 +14759,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>11</v>
       </c>
@@ -14772,7 +14785,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>12</v>
       </c>
@@ -14798,7 +14811,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>13</v>
       </c>
@@ -14824,7 +14837,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>14</v>
       </c>
@@ -14850,7 +14863,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>15</v>
       </c>
@@ -14876,7 +14889,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>16</v>
       </c>
@@ -14902,7 +14915,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>17</v>
       </c>
@@ -14928,7 +14941,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>18</v>
       </c>
@@ -14954,7 +14967,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>77</v>
       </c>
@@ -14980,7 +14993,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -15006,7 +15019,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>10</v>
       </c>
@@ -15032,7 +15045,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>11</v>
       </c>
@@ -15058,7 +15071,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>12</v>
       </c>
@@ -15084,7 +15097,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -15110,7 +15123,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>14</v>
       </c>
@@ -15136,7 +15149,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>15</v>
       </c>
@@ -15162,7 +15175,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>16</v>
       </c>
@@ -15188,7 +15201,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>17</v>
       </c>
@@ -15214,7 +15227,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>18</v>
       </c>
@@ -15240,7 +15253,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>77</v>
       </c>
@@ -15266,7 +15279,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>8</v>
       </c>
@@ -15292,7 +15305,7 @@
         <v>10954</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>10</v>
       </c>
@@ -15318,7 +15331,7 @@
         <v>10627</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>11</v>
       </c>
@@ -15344,7 +15357,7 @@
         <v>10652</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>12</v>
       </c>
@@ -15370,7 +15383,7 @@
         <v>10434</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>13</v>
       </c>
@@ -15396,7 +15409,7 @@
         <v>10857</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>14</v>
       </c>
@@ -15422,7 +15435,7 @@
         <v>11277</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>15</v>
       </c>
@@ -15448,7 +15461,7 @@
         <v>12321</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>16</v>
       </c>
@@ -15474,7 +15487,7 @@
         <v>13201</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>17</v>
       </c>
@@ -15500,7 +15513,7 @@
         <v>12790</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>18</v>
       </c>
@@ -15526,7 +15539,7 @@
         <v>13497</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>77</v>
       </c>
@@ -15552,7 +15565,7 @@
         <v>14508</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -15578,7 +15591,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>10</v>
       </c>
@@ -15604,7 +15617,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>11</v>
       </c>
@@ -15630,7 +15643,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>12</v>
       </c>
@@ -15656,7 +15669,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -15682,7 +15695,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>14</v>
       </c>
@@ -15708,7 +15721,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>15</v>
       </c>
@@ -15734,7 +15747,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>16</v>
       </c>
@@ -15760,7 +15773,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>17</v>
       </c>
@@ -15786,7 +15799,7 @@
         <v>4951</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>18</v>
       </c>
@@ -15812,7 +15825,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>77</v>
       </c>
@@ -15838,7 +15851,7 @@
         <v>5094</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>8</v>
       </c>
@@ -15864,7 +15877,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -15890,7 +15903,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>11</v>
       </c>
@@ -15916,7 +15929,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>12</v>
       </c>
@@ -15942,7 +15955,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>13</v>
       </c>
@@ -15968,7 +15981,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>14</v>
       </c>
@@ -15994,7 +16007,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>15</v>
       </c>
@@ -16020,7 +16033,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>16</v>
       </c>
@@ -16046,7 +16059,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>17</v>
       </c>
@@ -16072,7 +16085,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>18</v>
       </c>
@@ -16098,7 +16111,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>77</v>
       </c>
@@ -16124,7 +16137,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>8</v>
       </c>
@@ -16150,7 +16163,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -16176,7 +16189,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>11</v>
       </c>
@@ -16202,7 +16215,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>12</v>
       </c>
@@ -16228,7 +16241,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>13</v>
       </c>
@@ -16254,7 +16267,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>14</v>
       </c>
@@ -16280,7 +16293,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>15</v>
       </c>
@@ -16306,7 +16319,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>16</v>
       </c>
@@ -16332,7 +16345,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>17</v>
       </c>
@@ -16358,7 +16371,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>18</v>
       </c>
@@ -16384,7 +16397,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>77</v>
       </c>
@@ -16410,7 +16423,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>8</v>
       </c>
@@ -16436,7 +16449,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>10</v>
       </c>
@@ -16462,7 +16475,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>11</v>
       </c>
@@ -16488,7 +16501,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>12</v>
       </c>
@@ -16514,7 +16527,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>13</v>
       </c>
@@ -16540,7 +16553,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>14</v>
       </c>
@@ -16566,7 +16579,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>15</v>
       </c>
@@ -16592,7 +16605,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>16</v>
       </c>
@@ -16618,7 +16631,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>17</v>
       </c>
@@ -16644,7 +16657,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>18</v>
       </c>
@@ -16670,7 +16683,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>77</v>
       </c>
@@ -16696,7 +16709,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>8</v>
       </c>
@@ -16722,7 +16735,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -16748,7 +16761,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>11</v>
       </c>
@@ -16774,7 +16787,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>12</v>
       </c>
@@ -16800,7 +16813,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>13</v>
       </c>
@@ -16826,7 +16839,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>14</v>
       </c>
@@ -16852,7 +16865,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>15</v>
       </c>
@@ -16878,7 +16891,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>16</v>
       </c>
@@ -16904,7 +16917,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>17</v>
       </c>
@@ -16930,7 +16943,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>18</v>
       </c>
@@ -16956,7 +16969,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>77</v>
       </c>
@@ -16982,7 +16995,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>8</v>
       </c>
@@ -17008,7 +17021,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>10</v>
       </c>
@@ -17034,7 +17047,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>11</v>
       </c>
@@ -17060,7 +17073,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>12</v>
       </c>
@@ -17086,7 +17099,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -17112,7 +17125,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>14</v>
       </c>
@@ -17138,7 +17151,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>15</v>
       </c>
@@ -17164,7 +17177,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>16</v>
       </c>
@@ -17190,7 +17203,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>17</v>
       </c>
@@ -17216,7 +17229,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>18</v>
       </c>
@@ -17242,7 +17255,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>77</v>
       </c>
@@ -17268,7 +17281,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>8</v>
       </c>
@@ -17294,7 +17307,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>10</v>
       </c>
@@ -17320,7 +17333,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>11</v>
       </c>
@@ -17346,7 +17359,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>12</v>
       </c>
@@ -17372,7 +17385,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>13</v>
       </c>
@@ -17398,7 +17411,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>14</v>
       </c>
@@ -17424,7 +17437,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>15</v>
       </c>
@@ -17450,7 +17463,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>16</v>
       </c>
@@ -17476,7 +17489,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>17</v>
       </c>
@@ -17502,7 +17515,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>18</v>
       </c>
@@ -17528,7 +17541,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>77</v>
       </c>
